--- a/error_rankings/biodivner/pure_noise_full_prompts_small_models_error_category_ranking.xlsx
+++ b/error_rankings/biodivner/pure_noise_full_prompts_small_models_error_category_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORGANIZATION (ENVIRONMENT)</t>
+          <t>PROTEIN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PROTEIN</t>
+          <t>ORGANIZATION (ENVIRONMENT)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUALITY</t>
+          <t>MATTEr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>LOC</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>MAT</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>FIELD</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>COLUMN</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FUNCTION</t>
+          <t>COLUMN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIELD</t>
+          <t>FUNCTION</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MATTEr</t>
+          <t>REALQUALITYTY</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REALQUALITYTY</t>
+          <t>REGULATIONS</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>REGULATIONS</t>
+          <t>STRING</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,26 +700,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STRING</t>
+          <t>质量</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>质量</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C22" t="n">
         <v>7</v>
       </c>
     </row>
